--- a/REGULAR/OJT/MIRANDO, EDITH.xlsx
+++ b/REGULAR/OJT/MIRANDO, EDITH.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\NEW DONE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\OJT\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="809" uniqueCount="432">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="811" uniqueCount="433">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1329,6 +1329,9 @@
   </si>
   <si>
     <t>TOTAL LEAVE BALANCE</t>
+  </si>
+  <si>
+    <t>8/1-4/2023</t>
   </si>
 </sst>
 </file>
@@ -2360,7 +2363,7 @@
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A553" activePane="bottomLeft"/>
       <selection activeCell="A8" sqref="A8:K8"/>
-      <selection pane="bottomLeft" activeCell="B568" sqref="B568"/>
+      <selection pane="bottomLeft" activeCell="E569" sqref="E569"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2523,14 +2526,14 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>84.36200000000008</v>
+        <v>82.86200000000008</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13"/>
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>130.75</v>
+        <v>133.25</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -15011,15 +15014,17 @@
       <c r="B567" s="20" t="s">
         <v>223</v>
       </c>
-      <c r="C567" s="13"/>
+      <c r="C567" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D567" s="39">
         <v>1</v>
       </c>
       <c r="E567" s="9"/>
       <c r="F567" s="20"/>
-      <c r="G567" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G567" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H567" s="39"/>
       <c r="I567" s="9"/>
@@ -15033,13 +15038,15 @@
         <v>45078</v>
       </c>
       <c r="B568" s="20"/>
-      <c r="C568" s="13"/>
+      <c r="C568" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D568" s="39"/>
       <c r="E568" s="9"/>
       <c r="F568" s="20"/>
-      <c r="G568" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G568" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H568" s="39"/>
       <c r="I568" s="9"/>
@@ -15050,9 +15057,13 @@
       <c r="A569" s="40">
         <v>45108</v>
       </c>
-      <c r="B569" s="20"/>
+      <c r="B569" s="20" t="s">
+        <v>66</v>
+      </c>
       <c r="C569" s="13"/>
-      <c r="D569" s="39"/>
+      <c r="D569" s="39">
+        <v>4</v>
+      </c>
       <c r="E569" s="9"/>
       <c r="F569" s="20"/>
       <c r="G569" s="13" t="str">
@@ -15062,7 +15073,9 @@
       <c r="H569" s="39"/>
       <c r="I569" s="9"/>
       <c r="J569" s="11"/>
-      <c r="K569" s="20"/>
+      <c r="K569" s="20" t="s">
+        <v>432</v>
+      </c>
     </row>
     <row r="570" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A570" s="40">
@@ -16015,7 +16028,7 @@
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
         <f>SUM(Sheet1!E9,Sheet1!I9)</f>
-        <v>215.11200000000008</v>
+        <v>216.11200000000008</v>
       </c>
       <c r="C7" s="37">
         <v>1</v>
